--- a/easy-trade/easy-tms/src/main/webapp/excel/TradeDetailExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/TradeDetailExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2715" windowWidth="27450" windowHeight="10680"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>交易流水号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,34 +47,6 @@
   </si>
   <si>
     <t>买家姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家支付宝账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家支付宝姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家开户银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖家持卡人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -232,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,34 +442,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="29.625" customWidth="1"/>
-    <col min="17" max="17" width="18.625" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -513,17 +471,8 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,42 +498,15 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I4" s="3"/>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
